--- a/medicine/Sexualité et sexologie/Spermula/Spermula.xlsx
+++ b/medicine/Sexualité et sexologie/Spermula/Spermula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spermula ou Amour est un fleuve en Russie est un film français de science-fiction érotique réalisé par Charles Matton et sorti en 1976.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux États-Unis, dans les années 1930, une secte composée de libertins riches et excentriques qui rejettent toute idée d'amour, considérait la création artistique comme une forme de mal et tentait de trouver dans la liberté sexuelle totale l'extase de l'être pur. À la suite d'une conférence qu'ils ont convoquée à New York en 1937, tous les membres de la secte ont disparu. D'aucuns ont supposé qu'il s'agissait d'extraterrestres infiltrés. Des années plus tard, un journaliste les a retrouvés dans un endroit secret dans les forêts d'Amérique du Sud, mais on ne les entendit plus jamais. De la brume, un énorme vaisseau  flotte dans le ciel nocturne. À l'intérieur, Spermula et ses cohortes sont en train de retourner à la civilisation pour transmettre leur message de paix et de liberté à un monde devenu fou en « spermulant » les hommes, ce qui implique de leur retirer leur essence sexuelle qui provoque l'agression, l'ambition et la jalousie. Ils s'installent dans une maison de maître, dont les voisins comprennent le maire de la ville, son épouse malheureuse et maltraitée, son assistant et une veuve. Spermula et sa compagnie rassemblent les éléments de l'intrigue qui se termine par une orgie. Les femmes sont corrompues par ce contact avec le monde extérieur et leur belle chef, Spermula, tombe amoureuse d’un jeune artiste et sacrifie son immortalité pour une nuit de passion avec lui.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Spermula ou Amour est un fleuve en Russie
 Réalisation : Charles Matton et Just Jaeckin (non crédité)
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dayle Haddon : Spermula
 Udo Kier : Werner
@@ -595,7 +613,7 @@
 Isabelle Mercanton : Blanche
 Georges Géret : Grop
 Radiah Frye : Ruth
-Angela McDonald[1] : Gilda
+Angela McDonald : Gilda
 Suzannah Djian : Diamant
 Myriam Mézières : Bonne
 Karin Petersen : Sala
